--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="203">
   <si>
     <t>API Mode</t>
   </si>
@@ -543,6 +543,114 @@
   </si>
   <si>
     <t>RMA-M3AL-1-3</t>
+  </si>
+  <si>
+    <t>RMA-WNBR-001</t>
+  </si>
+  <si>
+    <t>RMA-WNBR-002</t>
+  </si>
+  <si>
+    <t>RMA-WNBR-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0nAAE</t>
+  </si>
+  <si>
+    <t>RMA-WNBR-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0oAAE</t>
+  </si>
+  <si>
+    <t>RMA-WNBR-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0pAAE</t>
+  </si>
+  <si>
+    <t>RMA-WNBR-1-3</t>
+  </si>
+  <si>
+    <t>RMA-VXRY-001</t>
+  </si>
+  <si>
+    <t>RMA-VXRY-002</t>
+  </si>
+  <si>
+    <t>RMA-VXRY-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL1CAAU</t>
+  </si>
+  <si>
+    <t>RMA-VXRY-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL1DAAU</t>
+  </si>
+  <si>
+    <t>RMA-VXRY-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL1EAAU</t>
+  </si>
+  <si>
+    <t>RMA-VXRY-1-3</t>
+  </si>
+  <si>
+    <t>RMA-VDAK-001</t>
+  </si>
+  <si>
+    <t>RMA-VDAK-002</t>
+  </si>
+  <si>
+    <t>RMA-VDAK-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2UAAU</t>
+  </si>
+  <si>
+    <t>RMA-VDAK-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2VAAU</t>
+  </si>
+  <si>
+    <t>RMA-VDAK-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2WAAU</t>
+  </si>
+  <si>
+    <t>RMA-VDAK-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ZH9H-001</t>
+  </si>
+  <si>
+    <t>RMA-ZH9H-002</t>
+  </si>
+  <si>
+    <t>RMA-ZH9H-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL38AAE</t>
+  </si>
+  <si>
+    <t>RMA-ZH9H-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL39AAE</t>
+  </si>
+  <si>
+    <t>RMA-ZH9H-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3AAAU</t>
+  </si>
+  <si>
+    <t>RMA-ZH9H-1-3</t>
   </si>
 </sst>
 </file>
@@ -552,7 +660,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="135" x14ac:knownFonts="1">
+  <fonts count="183" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +680,294 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1374,7 +1770,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -1580,11 +1976,83 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="183">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1718,8 +2186,56 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="134" fillId="0" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="182" fillId="0" borderId="90" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2507,11 +3023,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.828125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.51953125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.1328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.765625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2561,10 +3077,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2573,7 +3089,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2590,10 +3106,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2602,7 +3118,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2619,10 +3135,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2631,7 +3147,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="221">
   <si>
     <t>API Mode</t>
   </si>
@@ -651,6 +651,60 @@
   </si>
   <si>
     <t>RMA-ZH9H-1-3</t>
+  </si>
+  <si>
+    <t>RMA-XUQA-001</t>
+  </si>
+  <si>
+    <t>RMA-XUQA-002</t>
+  </si>
+  <si>
+    <t>RMA-XUQA-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6CAAU</t>
+  </si>
+  <si>
+    <t>RMA-XUQA-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6DAAU</t>
+  </si>
+  <si>
+    <t>RMA-XUQA-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6EAAU</t>
+  </si>
+  <si>
+    <t>RMA-XUQA-1-3</t>
+  </si>
+  <si>
+    <t>RMA-SNI8-001</t>
+  </si>
+  <si>
+    <t>RMA-SNI8-002</t>
+  </si>
+  <si>
+    <t>RMA-SNI8-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7PAAU</t>
+  </si>
+  <si>
+    <t>RMA-SNI8-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7QAAU</t>
+  </si>
+  <si>
+    <t>RMA-SNI8-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7RAAU</t>
+  </si>
+  <si>
+    <t>RMA-SNI8-1-3</t>
   </si>
 </sst>
 </file>
@@ -660,7 +714,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="183" x14ac:knownFonts="1">
+  <fonts count="207" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +734,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1770,7 +1968,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="103">
     <border>
       <left/>
       <right/>
@@ -2048,11 +2246,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="207">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2234,8 +2468,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="182" fillId="0" borderId="90" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="206" fillId="0" borderId="102" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3023,11 +3281,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.51953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.734375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.765625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.97265625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3077,10 +3335,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3089,7 +3347,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3106,10 +3364,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3118,7 +3376,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3135,10 +3393,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3147,7 +3405,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="355">
   <si>
     <t>API Mode</t>
   </si>
@@ -732,6 +732,381 @@
   </si>
   <si>
     <t>RMA-POP6-1-3</t>
+  </si>
+  <si>
+    <t>RMA-2JPD-001</t>
+  </si>
+  <si>
+    <t>RMA-2JPD-002</t>
+  </si>
+  <si>
+    <t>RMA-2JPD-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQHAA2</t>
+  </si>
+  <si>
+    <t>RMA-2JPD-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQIAA2</t>
+  </si>
+  <si>
+    <t>RMA-2JPD-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQJAA2</t>
+  </si>
+  <si>
+    <t>RMA-2JPD-1-3</t>
+  </si>
+  <si>
+    <t>RMA-SNZA-001</t>
+  </si>
+  <si>
+    <t>RMA-SNZA-002</t>
+  </si>
+  <si>
+    <t>RMA-SNZA-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRFAA2</t>
+  </si>
+  <si>
+    <t>RMA-SNZA-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRGAA2</t>
+  </si>
+  <si>
+    <t>RMA-SNZA-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRHAA2</t>
+  </si>
+  <si>
+    <t>RMA-SNZA-1-3</t>
+  </si>
+  <si>
+    <t>RMA-28DO-001</t>
+  </si>
+  <si>
+    <t>RMA-28DO-002</t>
+  </si>
+  <si>
+    <t>RMA-28DO-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRjAAM</t>
+  </si>
+  <si>
+    <t>RMA-28DO-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRkAAM</t>
+  </si>
+  <si>
+    <t>RMA-28DO-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRlAAM</t>
+  </si>
+  <si>
+    <t>RMA-28DO-1-3</t>
+  </si>
+  <si>
+    <t>RMA-4EE3-001</t>
+  </si>
+  <si>
+    <t>RMA-4EE3-002</t>
+  </si>
+  <si>
+    <t>RMA-4EE3-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRtAAM</t>
+  </si>
+  <si>
+    <t>RMA-4EE3-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRuAAM</t>
+  </si>
+  <si>
+    <t>RMA-4EE3-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRvAAM</t>
+  </si>
+  <si>
+    <t>RMA-4EE3-1-3</t>
+  </si>
+  <si>
+    <t>RMA-FYSM-001</t>
+  </si>
+  <si>
+    <t>RMA-FYSM-002</t>
+  </si>
+  <si>
+    <t>RMA-FYSM-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSNAA2</t>
+  </si>
+  <si>
+    <t>RMA-FYSM-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSOAA2</t>
+  </si>
+  <si>
+    <t>RMA-FYSM-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSPAA2</t>
+  </si>
+  <si>
+    <t>RMA-FYSM-1-3</t>
+  </si>
+  <si>
+    <t>RMA-33V1-001</t>
+  </si>
+  <si>
+    <t>RMA-33V1-002</t>
+  </si>
+  <si>
+    <t>RMA-33V1-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLShAAM</t>
+  </si>
+  <si>
+    <t>RMA-33V1-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSiAAM</t>
+  </si>
+  <si>
+    <t>RMA-33V1-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSjAAM</t>
+  </si>
+  <si>
+    <t>RMA-33V1-1-3</t>
+  </si>
+  <si>
+    <t>RMA-QRS9-001</t>
+  </si>
+  <si>
+    <t>RMA-QRS9-002</t>
+  </si>
+  <si>
+    <t>RMA-QRS9-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLU9AAM</t>
+  </si>
+  <si>
+    <t>RMA-QRS9-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLUAAA2</t>
+  </si>
+  <si>
+    <t>RMA-QRS9-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLUBAA2</t>
+  </si>
+  <si>
+    <t>RMA-QRS9-1-3</t>
+  </si>
+  <si>
+    <t>RMA-G3GG-001</t>
+  </si>
+  <si>
+    <t>RMA-G3GG-002</t>
+  </si>
+  <si>
+    <t>RMA-G3GG-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLV7AAM</t>
+  </si>
+  <si>
+    <t>RMA-G3GG-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLV8AAM</t>
+  </si>
+  <si>
+    <t>RMA-G3GG-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLV9AAM</t>
+  </si>
+  <si>
+    <t>RMA-G3GG-1-3</t>
+  </si>
+  <si>
+    <t>RMA-VNZF-001</t>
+  </si>
+  <si>
+    <t>RMA-VNZF-002</t>
+  </si>
+  <si>
+    <t>RMA-VNZF-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWKAA2</t>
+  </si>
+  <si>
+    <t>RMA-VNZF-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWLAA2</t>
+  </si>
+  <si>
+    <t>RMA-VNZF-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWMAA2</t>
+  </si>
+  <si>
+    <t>RMA-VNZF-1-3</t>
+  </si>
+  <si>
+    <t>RMA-8XTZ-001</t>
+  </si>
+  <si>
+    <t>RMA-8XTZ-002</t>
+  </si>
+  <si>
+    <t>RMA-8XTZ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLX3AAM</t>
+  </si>
+  <si>
+    <t>RMA-8XTZ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLX4AAM</t>
+  </si>
+  <si>
+    <t>RMA-8XTZ-1-2</t>
+  </si>
+  <si>
+    <t>RMA-JIAF-001</t>
+  </si>
+  <si>
+    <t>RMA-JIAF-002</t>
+  </si>
+  <si>
+    <t>RMA-JIAF-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLXNAA2</t>
+  </si>
+  <si>
+    <t>RMA-JIAF-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLXOAA2</t>
+  </si>
+  <si>
+    <t>RMA-JIAF-1-2</t>
+  </si>
+  <si>
+    <t>RMA-92OU-001</t>
+  </si>
+  <si>
+    <t>RMA-92OU-002</t>
+  </si>
+  <si>
+    <t>RMA-92OU-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYBAA2</t>
+  </si>
+  <si>
+    <t>RMA-92OU-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYCAA2</t>
+  </si>
+  <si>
+    <t>RMA-92OU-1-2</t>
+  </si>
+  <si>
+    <t>RMA-FZB8-001</t>
+  </si>
+  <si>
+    <t>RMA-FZB8-002</t>
+  </si>
+  <si>
+    <t>RMA-FZB8-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYfAAM</t>
+  </si>
+  <si>
+    <t>RMA-FZB8-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYgAAM</t>
+  </si>
+  <si>
+    <t>RMA-FZB8-1-2</t>
+  </si>
+  <si>
+    <t>RMA-2PL6-001</t>
+  </si>
+  <si>
+    <t>RMA-2PL6-002</t>
+  </si>
+  <si>
+    <t>RMA-2PL6-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZ4AAM</t>
+  </si>
+  <si>
+    <t>RMA-2PL6-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZ5AAM</t>
+  </si>
+  <si>
+    <t>RMA-2PL6-1-2</t>
+  </si>
+  <si>
+    <t>RMA-NDPI-001</t>
+  </si>
+  <si>
+    <t>RMA-NDPI-002</t>
+  </si>
+  <si>
+    <t>RMA-NDPI-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZnAAM</t>
+  </si>
+  <si>
+    <t>RMA-NDPI-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZoAAM</t>
+  </si>
+  <si>
+    <t>RMA-NDPI-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZpAAM</t>
+  </si>
+  <si>
+    <t>RMA-NDPI-1-3</t>
   </si>
 </sst>
 </file>
@@ -741,7 +1116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="389" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +1136,1026 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2067,7 +3462,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="109">
+  <borders count="194">
     <border>
       <left/>
       <right/>
@@ -2399,11 +3794,266 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="389">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2621,8 +4271,178 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="218" fillId="0" borderId="108" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="111" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="114" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="115" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="233" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="116" fillId="0" fontId="234" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="235" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="117" fillId="0" fontId="236" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="237" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="118" fillId="0" fontId="238" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="239" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="119" fillId="0" fontId="240" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="241" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="120" fillId="0" fontId="242" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="243" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="121" fillId="0" fontId="244" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="245" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="122" fillId="0" fontId="246" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="247" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="123" fillId="0" fontId="248" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="249" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="250" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="251" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="252" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="253" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="126" fillId="0" fontId="254" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="255" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="127" fillId="0" fontId="256" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="257" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="128" fillId="0" fontId="258" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="259" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="129" fillId="0" fontId="260" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="261" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="262" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="263" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="264" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="265" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="132" fillId="0" fontId="266" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="267" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="133" fillId="0" fontId="268" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="269" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="134" fillId="0" fontId="270" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="271" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="135" fillId="0" fontId="272" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="273" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="136" fillId="0" fontId="274" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="275" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="137" fillId="0" fontId="276" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="277" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="138" fillId="0" fontId="278" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="279" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="139" fillId="0" fontId="280" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="281" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="140" fillId="0" fontId="282" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="283" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="141" fillId="0" fontId="284" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="285" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="289" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="144" fillId="0" fontId="290" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="291" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="145" fillId="0" fontId="292" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="293" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="146" fillId="0" fontId="294" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="295" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="147" fillId="0" fontId="296" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="297" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="148" fillId="0" fontId="298" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="299" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="149" fillId="0" fontId="300" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="301" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="150" fillId="0" fontId="302" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="303" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="151" fillId="0" fontId="304" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="305" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="152" fillId="0" fontId="306" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="307" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="308" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="309" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="310" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="311" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="312" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="313" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="314" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="315" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="316" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="317" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="318" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="319" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="321" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="325" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="326" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="327" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="328" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="329" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="330" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="331" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="332" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="333" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="343" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="344" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="345" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="349" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="350" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="351" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="352" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="353" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="354" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="355" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="356" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="357" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="358" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="359" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="360" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="361" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="180" fillId="0" fontId="362" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="363" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="181" fillId="0" fontId="364" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="365" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="182" fillId="0" fontId="366" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="367" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="183" fillId="0" fontId="368" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="369" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="184" fillId="0" fontId="370" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="371" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="185" fillId="0" fontId="372" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="373" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="186" fillId="0" fontId="374" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="375" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="187" fillId="0" fontId="376" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="377" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="188" fillId="0" fontId="378" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="379" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="189" fillId="0" fontId="380" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="381" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="190" fillId="0" fontId="382" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="383" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="191" fillId="0" fontId="384" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="385" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="192" fillId="0" fontId="386" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="388" fillId="0" borderId="193" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3410,11 +5230,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.48046875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.09765625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.6328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.03515625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3464,10 +5284,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3476,7 +5296,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3493,10 +5313,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
-        <v>227</v>
+        <v>352</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3505,7 +5325,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>226</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3522,10 +5342,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>348</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3534,7 +5354,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>228</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="382">
   <si>
     <t>API Mode</t>
   </si>
@@ -1107,6 +1107,87 @@
   </si>
   <si>
     <t>RMA-NDPI-1-3</t>
+  </si>
+  <si>
+    <t>RMA-E8YI-001</t>
+  </si>
+  <si>
+    <t>RMA-E8YI-002</t>
+  </si>
+  <si>
+    <t>RMA-E8YI-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAeAAM</t>
+  </si>
+  <si>
+    <t>RMA-E8YI-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAfAAM</t>
+  </si>
+  <si>
+    <t>RMA-E8YI-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAgAAM</t>
+  </si>
+  <si>
+    <t>RMA-E8YI-1-3</t>
+  </si>
+  <si>
+    <t>RMA-O7EC-001</t>
+  </si>
+  <si>
+    <t>RMA-O7EC-002</t>
+  </si>
+  <si>
+    <t>RMA-O7EC-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrYAAU</t>
+  </si>
+  <si>
+    <t>RMA-O7EC-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrZAAU</t>
+  </si>
+  <si>
+    <t>RMA-O7EC-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMraAAE</t>
+  </si>
+  <si>
+    <t>RMA-O7EC-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ZYC7-001</t>
+  </si>
+  <si>
+    <t>RMA-ZYC7-002</t>
+  </si>
+  <si>
+    <t>RMA-ZYC7-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMriAAE</t>
+  </si>
+  <si>
+    <t>RMA-ZYC7-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrjAAE</t>
+  </si>
+  <si>
+    <t>RMA-ZYC7-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrkAAE</t>
+  </si>
+  <si>
+    <t>RMA-ZYC7-1-3</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="389" x14ac:knownFonts="1">
+  <fonts count="425" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,6 +1217,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3462,7 +3759,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="194">
+  <borders count="212">
     <border>
       <left/>
       <right/>
@@ -4049,11 +4346,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="389">
+  <cellXfs count="425">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -4441,8 +4792,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="191" fillId="0" fontId="384" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="385" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="192" fillId="0" fontId="386" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="388" fillId="0" borderId="193" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="387" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="193" fillId="0" fontId="388" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="389" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="194" fillId="0" fontId="390" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="391" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="195" fillId="0" fontId="392" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="393" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="196" fillId="0" fontId="394" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="395" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="197" fillId="0" fontId="396" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="397" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="198" fillId="0" fontId="398" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="399" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="199" fillId="0" fontId="400" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="401" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="200" fillId="0" fontId="402" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="403" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="201" fillId="0" fontId="404" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="405" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="202" fillId="0" fontId="406" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="407" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="203" fillId="0" fontId="408" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="409" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="204" fillId="0" fontId="410" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="411" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="205" fillId="0" fontId="412" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="413" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="206" fillId="0" fontId="414" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="415" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="207" fillId="0" fontId="416" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="417" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="208" fillId="0" fontId="418" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="419" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="209" fillId="0" fontId="420" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="421" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="210" fillId="0" fontId="422" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="424" fillId="0" borderId="211" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5230,11 +5617,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.09765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0234375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.03515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.76171875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -5284,10 +5671,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -5296,7 +5683,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5313,10 +5700,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -5325,7 +5712,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5342,10 +5729,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -5354,7 +5741,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="427">
   <si>
     <t>API Mode</t>
   </si>
@@ -1215,6 +1215,114 @@
   </si>
   <si>
     <t>RMA-M7GG-1-3</t>
+  </si>
+  <si>
+    <t>RMA-P4H7-001</t>
+  </si>
+  <si>
+    <t>RMA-P4H7-002</t>
+  </si>
+  <si>
+    <t>RMA-P4H7-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNp5AAE</t>
+  </si>
+  <si>
+    <t>RMA-P4H7-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNp6AAE</t>
+  </si>
+  <si>
+    <t>RMA-P4H7-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNp7AAE</t>
+  </si>
+  <si>
+    <t>RMA-P4H7-1-3</t>
+  </si>
+  <si>
+    <t>RMA-251J-001</t>
+  </si>
+  <si>
+    <t>RMA-251J-002</t>
+  </si>
+  <si>
+    <t>RMA-251J-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNuKAAU</t>
+  </si>
+  <si>
+    <t>RMA-251J-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNuLAAU</t>
+  </si>
+  <si>
+    <t>RMA-251J-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNuMAAU</t>
+  </si>
+  <si>
+    <t>RMA-251J-1-3</t>
+  </si>
+  <si>
+    <t>RMA-FWE0-001</t>
+  </si>
+  <si>
+    <t>RMA-FWE0-002</t>
+  </si>
+  <si>
+    <t>RMA-FWE0-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNueAAE</t>
+  </si>
+  <si>
+    <t>RMA-FWE0-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNufAAE</t>
+  </si>
+  <si>
+    <t>RMA-FWE0-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNugAAE</t>
+  </si>
+  <si>
+    <t>RMA-FWE0-1-3</t>
+  </si>
+  <si>
+    <t>RMA-DU43-001</t>
+  </si>
+  <si>
+    <t>RMA-DU43-002</t>
+  </si>
+  <si>
+    <t>RMA-DU43-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNvIAAU</t>
+  </si>
+  <si>
+    <t>RMA-DU43-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNvJAAU</t>
+  </si>
+  <si>
+    <t>RMA-DU43-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNvKAAU</t>
+  </si>
+  <si>
+    <t>RMA-DU43-1-3</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="437" x14ac:knownFonts="1">
+  <fonts count="485" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1244,6 +1352,294 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3858,7 +4254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="218">
+  <borders count="242">
     <border>
       <left/>
       <right/>
@@ -4517,11 +4913,83 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="485">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -4957,8 +5425,56 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="215" fillId="0" fontId="432" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="433" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="216" fillId="0" fontId="434" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="436" fillId="0" borderId="217" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="435" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="217" fillId="0" fontId="436" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="437" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="218" fillId="0" fontId="438" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="439" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="219" fillId="0" fontId="440" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="441" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="220" fillId="0" fontId="442" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="443" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="221" fillId="0" fontId="444" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="445" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="222" fillId="0" fontId="446" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="447" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="223" fillId="0" fontId="448" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="449" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="224" fillId="0" fontId="450" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="451" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="225" fillId="0" fontId="452" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="453" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="226" fillId="0" fontId="454" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="455" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="227" fillId="0" fontId="456" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="457" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="228" fillId="0" fontId="458" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="459" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="229" fillId="0" fontId="460" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="461" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="230" fillId="0" fontId="462" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="463" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="231" fillId="0" fontId="464" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="465" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="232" fillId="0" fontId="466" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="467" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="233" fillId="0" fontId="468" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="469" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="234" fillId="0" fontId="470" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="471" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="235" fillId="0" fontId="472" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="473" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="236" fillId="0" fontId="474" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="475" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="237" fillId="0" fontId="476" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="477" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="238" fillId="0" fontId="478" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="479" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="239" fillId="0" fontId="480" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="481" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="240" fillId="0" fontId="482" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="484" fillId="0" borderId="241" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5745,12 +6261,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.84765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.40625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.62890625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.0078125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -5800,10 +6316,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -5812,7 +6328,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5829,10 +6345,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -5841,7 +6357,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5858,10 +6374,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="F4" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -5870,7 +6386,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
